--- a/exercises/ch_03_exercises/ch_03_exercise_solutions.xlsx
+++ b/exercises/ch_03_exercises/ch_03_exercise_solutions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercise_solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\exercises\ch_03_exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B8400-F286-441A-BFBA-ADA18939E73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0673958-8B50-4F67-BAA4-CB9F8D211251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{FCAB1A66-0099-44C2-A0E5-A8B6C271FDEC}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>region</t>
   </si>
@@ -350,6 +350,15 @@
   </si>
   <si>
     <t>Aurora</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of population</t>
   </si>
 </sst>
 </file>
@@ -373,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -381,132 +390,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFABABAB"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFABABAB"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFABABAB"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFABABAB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +451,59 @@
       </sharedItems>
     </cacheField>
     <cacheField name="state" numFmtId="0">
-      <sharedItems/>
+      <sharedItems count="51">
+        <s v="California"/>
+        <s v="Texas"/>
+        <s v="Florida"/>
+        <s v="New York"/>
+        <s v="Illinois"/>
+        <s v="Pennsylvania"/>
+        <s v="Ohio"/>
+        <s v="Georgia"/>
+        <s v="North Carolina"/>
+        <s v="Michigan"/>
+        <s v="New Jersey"/>
+        <s v="Virginia"/>
+        <s v="Washington"/>
+        <s v="Arizona"/>
+        <s v="Massachusetts"/>
+        <s v="Tennessee"/>
+        <s v="Indiana"/>
+        <s v="Missouri"/>
+        <s v="Maryland"/>
+        <s v="Wisconsin"/>
+        <s v="Colorado"/>
+        <s v="Minnesota"/>
+        <s v="South Carolina"/>
+        <s v="Alabama"/>
+        <s v="Louisiana"/>
+        <s v="Kentucky"/>
+        <s v="Oregon"/>
+        <s v="Oklahoma"/>
+        <s v="Connecticut"/>
+        <s v="Iowa"/>
+        <s v="Utah"/>
+        <s v="Mississippi"/>
+        <s v="Arkansas"/>
+        <s v="Nevada"/>
+        <s v="Kansas"/>
+        <s v="New Mexico"/>
+        <s v="Nebraska"/>
+        <s v="West Virginia"/>
+        <s v="Idaho"/>
+        <s v="Hawaii"/>
+        <s v="New Hampshire"/>
+        <s v="Maine"/>
+        <s v="Rhode Island"/>
+        <s v="Montana"/>
+        <s v="Delaware"/>
+        <s v="South Dakota"/>
+        <s v="North Dakota"/>
+        <s v="Alaska"/>
+        <s v="District of Columbia"/>
+        <s v="Vermont"/>
+        <s v="Wyoming"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="population" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="585501" maxValue="39250017"/>
@@ -576,321 +522,543 @@
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="California"/>
+    <x v="0"/>
     <n v="39250017"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="Texas"/>
+    <x v="1"/>
     <n v="27862596"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Florida"/>
+    <x v="2"/>
     <n v="20612439"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <s v="New York"/>
+    <x v="3"/>
     <n v="19745289"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <s v="Illinois"/>
+    <x v="4"/>
     <n v="12801539"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <s v="Pennsylvania"/>
+    <x v="5"/>
     <n v="12784227"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <s v="Ohio"/>
+    <x v="6"/>
     <n v="11614373"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Georgia"/>
+    <x v="7"/>
     <n v="10310371"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="North Carolina"/>
+    <x v="8"/>
     <n v="10146788"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <s v="Michigan"/>
+    <x v="9"/>
     <n v="9928300"/>
   </r>
   <r>
     <x v="2"/>
     <x v="3"/>
-    <s v="New Jersey"/>
+    <x v="10"/>
     <n v="8944469"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Virginia"/>
+    <x v="11"/>
     <n v="8411808"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Washington"/>
+    <x v="12"/>
     <n v="7288000"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Arizona"/>
+    <x v="13"/>
     <n v="6931071"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <s v="Massachusetts"/>
+    <x v="14"/>
     <n v="6811779"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <s v="Tennessee"/>
+    <x v="15"/>
     <n v="6651194"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <s v="Indiana"/>
+    <x v="16"/>
     <n v="6633053"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="Missouri"/>
+    <x v="17"/>
     <n v="6093000"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Maryland"/>
+    <x v="18"/>
     <n v="6016447"/>
   </r>
   <r>
     <x v="3"/>
     <x v="4"/>
-    <s v="Wisconsin"/>
+    <x v="19"/>
     <n v="5778708"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Colorado"/>
+    <x v="20"/>
     <n v="5540545"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="Minnesota"/>
+    <x v="21"/>
     <n v="5519952"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="South Carolina"/>
+    <x v="22"/>
     <n v="4961119"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <s v="Alabama"/>
+    <x v="23"/>
     <n v="4863300"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="Louisiana"/>
+    <x v="24"/>
     <n v="4681666"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <s v="Kentucky"/>
+    <x v="25"/>
     <n v="4436974"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Oregon"/>
+    <x v="26"/>
     <n v="4093465"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="Oklahoma"/>
+    <x v="27"/>
     <n v="3923561"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <s v="Connecticut"/>
+    <x v="28"/>
     <n v="3576452"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="Iowa"/>
+    <x v="29"/>
     <n v="3134693"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Utah"/>
+    <x v="30"/>
     <n v="3051217"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
-    <s v="Mississippi"/>
+    <x v="31"/>
     <n v="2988726"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
-    <s v="Arkansas"/>
+    <x v="32"/>
     <n v="2988248"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Nevada"/>
+    <x v="33"/>
     <n v="2940058"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="Kansas"/>
+    <x v="34"/>
     <n v="2907289"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="New Mexico"/>
+    <x v="35"/>
     <n v="2081015"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="Nebraska"/>
+    <x v="36"/>
     <n v="1907116"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="West Virginia"/>
+    <x v="37"/>
     <n v="1831102"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Idaho"/>
+    <x v="38"/>
     <n v="1683140"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Hawaii"/>
+    <x v="39"/>
     <n v="1428557"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <s v="New Hampshire"/>
+    <x v="40"/>
     <n v="1334795"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <s v="Maine"/>
+    <x v="41"/>
     <n v="1331479"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <s v="Rhode Island"/>
+    <x v="42"/>
     <n v="1056426"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Montana"/>
+    <x v="43"/>
     <n v="1042520"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="Delaware"/>
+    <x v="44"/>
     <n v="952065"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="South Dakota"/>
+    <x v="45"/>
     <n v="865454"/>
   </r>
   <r>
     <x v="3"/>
     <x v="8"/>
-    <s v="North Dakota"/>
+    <x v="46"/>
     <n v="757952"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Alaska"/>
+    <x v="47"/>
     <n v="741894"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
-    <s v="District of Columbia"/>
+    <x v="48"/>
     <n v="681170"/>
   </r>
   <r>
     <x v="2"/>
     <x v="6"/>
-    <s v="Vermont"/>
+    <x v="49"/>
     <n v="624594"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
-    <s v="Wyoming"/>
+    <x v="50"/>
     <n v="585501"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E01250B6-A8DA-4405-9D87-966B646E362B}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:C18" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E01250B6-A8DA-4405-9D87-966B646E362B}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:B53" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="52">
+        <item x="23"/>
+        <item x="47"/>
+        <item x="13"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="20"/>
+        <item x="28"/>
+        <item x="44"/>
+        <item x="48"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="29"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="41"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="43"/>
+        <item x="36"/>
+        <item x="33"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="46"/>
+        <item x="6"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="5"/>
+        <item x="42"/>
+        <item x="22"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="1"/>
+        <item x="30"/>
+        <item x="49"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="37"/>
+        <item x="19"/>
+        <item x="50"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="52">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of population" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -950,9 +1118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -990,7 +1158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1096,7 +1264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1238,7 +1406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1738,101 +1906,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EDC002E-CD2D-468C-BD28-ABB47B965055}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.9296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4863300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3">
+        <v>741894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6931071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2988248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>39250017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5540545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3576452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3">
+        <v>952065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3">
+        <v>681170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3">
+        <v>20612439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10310371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1428557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1683140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12801539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6633053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3">
+        <v>3134693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2907289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
+        <v>4436974</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4681666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1331479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="3">
+        <v>6016447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="3">
+        <v>6811779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>9928300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5519952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2988726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>6093000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1042520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1907116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2940058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1334795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="3">
+        <v>8944469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2081015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3">
+        <v>19745289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3">
+        <v>10146788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3">
+        <v>757952</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="3">
+        <v>11614373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3923561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4093465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3">
+        <v>12784227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1056426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4961119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="3">
+        <v>865454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="3">
+        <v>6651194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="3">
+        <v>27862596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3051217</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="3">
+        <v>624594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>8411808</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="3">
+        <v>7288000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1831102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5778708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="3">
+        <v>585501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="3">
+        <v>323127513</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
